--- a/frontend/assets/Paths.xlsx
+++ b/frontend/assets/Paths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbautista\Documents\Dashboard_Prisa\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbautista\Documents\Dashboard Prisa Web\frontend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121492BB-7FAB-4950-A2AA-0D94570F0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC68B5-A758-4B9E-BBCC-51682DEF7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>https://lookerstudio.google.com/reporting/c74cd2e5-d18c-49bb-a6fa-d8d203db328f</t>
   </si>
   <si>
-    <t>C:/Users/vbautista/OneDrive - Grupo PRISA/Trafico/Seguimientos diarios/Seguimientos 25/Seguimiento Consolidado/ias/</t>
-  </si>
-  <si>
     <t>C:/Users/vbautista/OneDrive - Grupo PRISA/Trafico/Seguimientos diarios/Seguimientos 25/Seguimiento Consolidado/Adbook/</t>
   </si>
   <si>
@@ -147,13 +144,16 @@
   </si>
   <si>
     <t>C:/Users/vbautista/OneDrive - Grupo PRISA/Trafico/Seguimientos diarios/Seguimientos 25/Seguimiento Consolidado/Xandr/</t>
+  </si>
+  <si>
+    <t>https://grupoprisa-my.sharepoint.com/:f:/r/personal/lgonzalez_grupoprisa_com/Documents/Trafico/Seguimientos%20diarios/Seguimientos%2025/Seguimiento%20Consolidado/ias/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,12 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -524,7 +533,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,15 +635,15 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,21 +683,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" xr:uid="{114089B3-C9E7-48BA-9805-24F45E5190B4}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C8662FEA-58B4-480C-96F5-697662108AD2}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{DE026A32-902E-4118-8E1C-ED8206F37801}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/frontend/assets/Paths.xlsx
+++ b/frontend/assets/Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbautista\Documents\Dashboard Prisa Web\frontend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC68B5-A758-4B9E-BBCC-51682DEF7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAD00D-88BF-4270-9BB1-C2986D136D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>C:/Users/vbautista/OneDrive - Grupo PRISA/Trafico/Seguimientos diarios/Seguimientos 25/Seguimiento Consolidado/Xandr/</t>
   </si>
   <si>
-    <t>https://grupoprisa-my.sharepoint.com/:f:/r/personal/lgonzalez_grupoprisa_com/Documents/Trafico/Seguimientos%20diarios/Seguimientos%2025/Seguimiento%20Consolidado/ias/</t>
+    <t>https://grupoprisa-my.sharepoint.com/:f:/r/personal/lgonzalez_grupoprisa_com/Documents/Trafico/Seguimientos%20diarios/Seguimientos%2025/Seguimiento%20Consolidado/ias?csf=1&amp;web=1&amp;e=m3egHa</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/frontend/assets/Paths.xlsx
+++ b/frontend/assets/Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbautista\Documents\Dashboard Prisa Web\frontend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAD00D-88BF-4270-9BB1-C2986D136D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD566EC-FDDF-487C-9FB7-68797ABD5AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,14 +146,14 @@
     <t>C:/Users/vbautista/OneDrive - Grupo PRISA/Trafico/Seguimientos diarios/Seguimientos 25/Seguimiento Consolidado/Xandr/</t>
   </si>
   <si>
-    <t>https://grupoprisa-my.sharepoint.com/:f:/r/personal/lgonzalez_grupoprisa_com/Documents/Trafico/Seguimientos%20diarios/Seguimientos%2025/Seguimiento%20Consolidado/ias?csf=1&amp;web=1&amp;e=m3egHa</t>
+    <t>https://grupoprisa-my.sharepoint.com/:f:/p/lgonzalez/Ei_wZ6KR_RpGvz6jPJsWWQYBjon_peB9mUAd77qVVPzjbA?e=8CiISI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,13 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -533,7 +541,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +618,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
